--- a/data_and_models/Geothermal power processes_brightway.xlsx
+++ b/data_and_models/Geothermal power processes_brightway.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\LCA\GSA\Geothermal\BW model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrea\OneDrive - University College London\S4CE\GSA\Geothermal\data_and_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_0F4E0F84436A7099388CBA680EB0E84D207DD4E4" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E14349D6-146B-47E3-968F-42CEFF7F6B0A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Wells_skip" sheetId="7" r:id="rId3"/>
     <sheet name="Plants_skip" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Andrea Paulillo</author>
   </authors>
   <commentList>
-    <comment ref="B183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B183" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B197" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B197" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B217" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B217" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,12 +115,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Andrea Paulillo</author>
   </authors>
   <commentList>
-    <comment ref="B184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B184" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B198" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B198" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B218" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="B218" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,12 +197,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Andrea Paulillo</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="119">
   <si>
     <t>Database</t>
   </si>
@@ -587,11 +586,14 @@
   <si>
     <t>geothermal plant, single flash, facilities (electricity)</t>
   </si>
+  <si>
+    <t>market for steel, low-alloyed, hot rolled</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1023,29 +1025,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I179" sqref="I179:K180"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
-    <col min="9" max="10" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="4.81640625" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1054,7 +1056,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1065,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1072,7 +1074,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1081,7 +1083,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1089,12 +1091,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1126,12 +1128,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1173,7 +1175,7 @@
       </c>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1193,7 +1195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1265,7 +1267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -1344,7 +1346,7 @@
         <v>110000.00000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1368,7 +1370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1376,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1392,7 +1394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1404,7 +1406,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1545,9 +1547,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B32">
         <v>197</v>
@@ -1593,7 +1595,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>25</v>
       </c>
@@ -1750,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>38</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1823,7 +1825,7 @@
         <v>-53.75</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1831,7 +1833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1839,7 +1841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1847,7 +1849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -1883,7 +1885,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -1925,7 +1927,7 @@
       </c>
       <c r="O47" s="12"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>2091.6320474777449</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2011,7 +2013,7 @@
         <v>89.109792284866472</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -2054,7 +2056,7 @@
         <v>12785.786350148368</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>722.67062314540067</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -2140,7 +2142,7 @@
         <v>565.01483679525222</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>166.91394658753708</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>39</v>
       </c>
@@ -2226,7 +2228,7 @@
         <v>581.66172106824922</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -2269,7 +2271,7 @@
         <v>486.72106824925811</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>324.48071216617211</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -2364,7 +2366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>-213863.50148367955</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>25</v>
       </c>
@@ -2440,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>38</v>
       </c>
@@ -2473,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>68</v>
       </c>
@@ -2506,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2549,7 +2551,7 @@
         <v>-581.66172106824922</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>-486.72106824925811</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2635,7 +2637,7 @@
         <v>-324.48071216617211</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -2678,7 +2680,7 @@
         <v>-14143.192878338279</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -2686,7 +2688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2702,7 +2704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2718,7 +2720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2726,7 +2728,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -2738,7 +2740,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>12</v>
       </c>
@@ -2780,9 +2782,9 @@
       </c>
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B75">
         <f>Plants_skip!B40/303.3</f>
@@ -2823,7 +2825,7 @@
         <v>9465.75</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -2866,7 +2868,7 @@
         <v>2219.7000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -2909,7 +2911,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -2952,7 +2954,7 @@
         <v>414.70000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -2995,7 +2997,7 @@
         <v>488.25</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>39</v>
       </c>
@@ -3038,7 +3040,7 @@
         <v>290.40000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -3081,7 +3083,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -3124,7 +3126,7 @@
         <v>2249.1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>50</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>751.30000000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>25</v>
       </c>
@@ -3204,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>38</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>68</v>
       </c>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>35</v>
       </c>
@@ -3321,7 +3323,7 @@
         <v>-290.40000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>69</v>
       </c>
@@ -3364,7 +3366,7 @@
         <v>-9.8999999999999986</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>51</v>
       </c>
@@ -3407,7 +3409,7 @@
         <v>-488.25</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
@@ -3415,7 +3417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -3439,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3447,7 +3449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3458,7 +3460,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>11</v>
       </c>
@@ -3470,7 +3472,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>12</v>
       </c>
@@ -3505,7 +3507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -3525,7 +3527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>53</v>
       </c>
@@ -3545,7 +3547,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>55</v>
       </c>
@@ -3566,7 +3568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -3574,7 +3576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3582,7 +3584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -3590,7 +3592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -3598,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3606,7 +3608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -3614,7 +3616,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>11</v>
       </c>
@@ -3626,7 +3628,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>12</v>
       </c>
@@ -3668,7 +3670,7 @@
       </c>
       <c r="O110" s="12"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -3711,7 +3713,7 @@
         <v>2381.5</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>32</v>
       </c>
@@ -3754,7 +3756,7 @@
         <v>94.600000000000009</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -3797,7 +3799,7 @@
         <v>13137.300000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>568.70000000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>42</v>
       </c>
@@ -3883,7 +3885,7 @@
         <v>635.80000000000007</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -3926,7 +3928,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>39</v>
       </c>
@@ -3969,7 +3971,7 @@
         <v>623.70000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -4012,7 +4014,7 @@
         <v>526.5</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -4055,7 +4057,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>45</v>
       </c>
@@ -4098,7 +4100,7 @@
         <v>13914.560000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>34</v>
       </c>
@@ -4141,7 +4143,7 @@
         <v>-240240.00000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>25</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>38</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>68</v>
       </c>
@@ -4243,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>35</v>
       </c>
@@ -4286,7 +4288,7 @@
         <v>-623.70000000000005</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>69</v>
       </c>
@@ -4329,7 +4331,7 @@
         <v>-526.5</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>70</v>
       </c>
@@ -4372,7 +4374,7 @@
         <v>-351</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>46</v>
       </c>
@@ -4415,7 +4417,7 @@
         <v>-13914.560000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
@@ -4423,7 +4425,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -4431,7 +4433,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -4439,7 +4441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -4447,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -4455,7 +4457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -4463,7 +4465,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -4475,7 +4477,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>12</v>
       </c>
@@ -4517,9 +4519,9 @@
       </c>
       <c r="O137" s="12"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B138">
         <f>Plants_skip!B103/270</f>
@@ -4560,7 +4562,7 @@
         <v>9046.8000000000011</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -4603,7 +4605,7 @@
         <v>2460.15</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>43</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>399.3</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>48</v>
       </c>
@@ -4732,7 +4734,7 @@
         <v>549.15</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>39</v>
       </c>
@@ -4775,7 +4777,7 @@
         <v>270.60000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>44</v>
       </c>
@@ -4818,7 +4820,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>49</v>
       </c>
@@ -4861,7 +4863,7 @@
         <v>2221.8000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>50</v>
       </c>
@@ -4904,7 +4906,7 @@
         <v>728.2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>25</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>38</v>
       </c>
@@ -4978,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>68</v>
       </c>
@@ -5015,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>35</v>
       </c>
@@ -5058,7 +5060,7 @@
         <v>-270.60000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>69</v>
       </c>
@@ -5101,7 +5103,7 @@
         <v>-8.8000000000000007</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>51</v>
       </c>
@@ -5144,7 +5146,7 @@
         <v>-549.15</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>2</v>
       </c>
@@ -5152,7 +5154,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -5168,7 +5170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -5176,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -5184,7 +5186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>11</v>
       </c>
@@ -5207,7 +5209,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
@@ -5242,7 +5244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>52</v>
       </c>
@@ -5262,7 +5264,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>53</v>
       </c>
@@ -5282,7 +5284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>55</v>
       </c>
@@ -5303,7 +5305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>2</v>
       </c>
@@ -5311,7 +5313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -5319,7 +5321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -5327,7 +5329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -5335,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -5351,7 +5353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
@@ -5363,7 +5365,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>12</v>
       </c>
@@ -5405,7 +5407,7 @@
       </c>
       <c r="O173" s="12"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -5447,7 +5449,7 @@
         <v>18.900000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -5489,7 +5491,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -5531,7 +5533,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -5573,9 +5575,9 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B178">
         <v>14600</v>
@@ -5615,7 +5617,7 @@
         <v>15330</v>
       </c>
     </row>
-    <row r="179" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>38</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>25</v>
       </c>
@@ -5677,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>34</v>
       </c>
@@ -5719,7 +5721,7 @@
         <v>-45360</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>2</v>
       </c>
@@ -5727,7 +5729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>3</v>
       </c>
@@ -5735,12 +5737,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -5748,7 +5750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -5756,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -5764,7 +5766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -5772,7 +5774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>11</v>
       </c>
@@ -5784,7 +5786,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>12</v>
       </c>
@@ -5824,7 +5826,7 @@
       <c r="N191" s="12"/>
       <c r="O191" s="12"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>76</v>
       </c>
@@ -5844,7 +5846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>77</v>
       </c>
@@ -5864,7 +5866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>78</v>
       </c>
@@ -5884,7 +5886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>26</v>
       </c>
@@ -5904,7 +5906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
@@ -5912,7 +5914,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>3</v>
       </c>
@@ -5920,7 +5922,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -5936,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -5944,7 +5946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>11</v>
       </c>
@@ -5964,7 +5966,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>12</v>
       </c>
@@ -6002,7 +6004,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>75</v>
       </c>
@@ -6025,7 +6027,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>92</v>
       </c>
@@ -6049,9 +6051,9 @@
         <v>66571486847.999992</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -6069,7 +6071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>90</v>
       </c>
@@ -6092,7 +6094,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>77</v>
       </c>
@@ -6112,7 +6114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>79</v>
       </c>
@@ -6132,7 +6134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>100</v>
       </c>
@@ -6152,7 +6154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>93</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>54</v>
       </c>
@@ -6192,7 +6194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>56</v>
       </c>
@@ -6212,7 +6214,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>87</v>
       </c>
@@ -6232,7 +6234,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>2</v>
       </c>
@@ -6240,7 +6242,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>3</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -6256,7 +6258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -6264,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -6272,7 +6274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -6280,7 +6282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>11</v>
       </c>
@@ -6292,7 +6294,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>12</v>
       </c>
@@ -6327,7 +6329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>75</v>
       </c>
@@ -6347,7 +6349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>102</v>
       </c>
@@ -6367,9 +6369,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -6387,7 +6389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>90</v>
       </c>
@@ -6407,7 +6409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>77</v>
       </c>
@@ -6427,7 +6429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>79</v>
       </c>
@@ -6447,7 +6449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>100</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>93</v>
       </c>
@@ -6487,7 +6489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>54</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>107</v>
       </c>
@@ -6527,7 +6529,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>103</v>
       </c>
@@ -6547,7 +6549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>115</v>
       </c>
@@ -6567,7 +6569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>116</v>
       </c>
@@ -6605,34 +6607,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U238"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I148" sqref="I148:K150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
-    <col min="9" max="10" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="4.81640625" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -6641,7 +6643,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6650,7 +6652,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6659,7 +6661,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -6668,7 +6670,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -6676,12 +6678,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -6689,7 +6691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -6697,7 +6699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6705,7 +6707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6713,12 +6715,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -6760,7 +6762,7 @@
       </c>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -6780,7 +6782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -6803,7 +6805,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -6832,7 +6834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6852,7 +6854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
@@ -6872,7 +6874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -6892,7 +6894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -6934,7 +6936,7 @@
         <v>110000.00000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -6942,7 +6944,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -6974,7 +6976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -6994,7 +6996,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -7039,7 +7041,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -7087,7 +7089,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -7135,7 +7137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -7183,7 +7185,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -7225,7 +7227,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -7267,7 +7269,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -7309,7 +7311,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>25</v>
       </c>
@@ -7340,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>38</v>
       </c>
@@ -7371,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -7413,7 +7415,7 @@
         <v>-53.75</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -7421,7 +7423,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -7429,7 +7431,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -7437,7 +7439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -7445,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -7453,7 +7455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -7461,7 +7463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -7473,7 +7475,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
@@ -7515,7 +7517,7 @@
       </c>
       <c r="O48" s="12"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -7558,7 +7560,7 @@
         <v>2091.6320474777449</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -7601,7 +7603,7 @@
         <v>89.109792284866472</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -7644,7 +7646,7 @@
         <v>12785.786350148368</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -7687,7 +7689,7 @@
         <v>722.67062314540067</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -7730,7 +7732,7 @@
         <v>565.01483679525222</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -7773,7 +7775,7 @@
         <v>166.91394658753708</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>39</v>
       </c>
@@ -7816,7 +7818,7 @@
         <v>581.66172106824922</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -7859,7 +7861,7 @@
         <v>486.72106824925811</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -7902,7 +7904,7 @@
         <v>324.48071216617211</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -7954,7 +7956,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -7997,7 +7999,7 @@
         <v>-213863.50148367955</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>25</v>
       </c>
@@ -8030,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>38</v>
       </c>
@@ -8063,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>68</v>
       </c>
@@ -8096,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -8139,7 +8141,7 @@
         <v>-581.66172106824922</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -8182,7 +8184,7 @@
         <v>-486.72106824925811</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>-324.48071216617211</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -8268,7 +8270,7 @@
         <v>-14143.192878338279</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -8276,7 +8278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -8284,7 +8286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -8292,7 +8294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -8300,7 +8302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -8308,7 +8310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -8316,7 +8318,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -8328,7 +8330,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
@@ -8370,7 +8372,7 @@
       </c>
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -8413,7 +8415,7 @@
         <v>9465.75</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -8456,7 +8458,7 @@
         <v>2219.7000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -8499,7 +8501,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -8542,7 +8544,7 @@
         <v>414.70000000000005</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -8585,7 +8587,7 @@
         <v>488.25</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>39</v>
       </c>
@@ -8628,7 +8630,7 @@
         <v>290.40000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>44</v>
       </c>
@@ -8671,7 +8673,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>49</v>
       </c>
@@ -8714,7 +8716,7 @@
         <v>2249.1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>50</v>
       </c>
@@ -8757,7 +8759,7 @@
         <v>751.30000000000007</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>25</v>
       </c>
@@ -8794,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>38</v>
       </c>
@@ -8831,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>68</v>
       </c>
@@ -8868,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -8911,7 +8913,7 @@
         <v>-290.40000000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>69</v>
       </c>
@@ -8954,7 +8956,7 @@
         <v>-9.8999999999999986</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>51</v>
       </c>
@@ -8997,7 +8999,7 @@
         <v>-488.25</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
@@ -9005,7 +9007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -9013,7 +9015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -9021,7 +9023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -9029,7 +9031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -9037,7 +9039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -9048,7 +9050,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
@@ -9060,7 +9062,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -9095,7 +9097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>52</v>
       </c>
@@ -9115,7 +9117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -9135,7 +9137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>55</v>
       </c>
@@ -9156,7 +9158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -9164,7 +9166,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -9172,7 +9174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -9180,7 +9182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -9188,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -9196,7 +9198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -9204,7 +9206,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
@@ -9216,7 +9218,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
@@ -9258,7 +9260,7 @@
       </c>
       <c r="O111" s="12"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -9301,7 +9303,7 @@
         <v>2381.5</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -9344,7 +9346,7 @@
         <v>94.600000000000009</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>41</v>
       </c>
@@ -9387,7 +9389,7 @@
         <v>13137.300000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -9430,7 +9432,7 @@
         <v>568.70000000000005</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>42</v>
       </c>
@@ -9473,7 +9475,7 @@
         <v>635.80000000000007</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>43</v>
       </c>
@@ -9516,7 +9518,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>39</v>
       </c>
@@ -9559,7 +9561,7 @@
         <v>623.70000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>44</v>
       </c>
@@ -9602,7 +9604,7 @@
         <v>526.5</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -9645,7 +9647,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>45</v>
       </c>
@@ -9688,7 +9690,7 @@
         <v>13914.560000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>34</v>
       </c>
@@ -9731,7 +9733,7 @@
         <v>-240240.00000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>25</v>
       </c>
@@ -9765,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>38</v>
       </c>
@@ -9799,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>68</v>
       </c>
@@ -9833,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>35</v>
       </c>
@@ -9876,7 +9878,7 @@
         <v>-623.70000000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>69</v>
       </c>
@@ -9919,7 +9921,7 @@
         <v>-526.5</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>70</v>
       </c>
@@ -9962,7 +9964,7 @@
         <v>-351</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>46</v>
       </c>
@@ -10005,7 +10007,7 @@
         <v>-13914.560000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>2</v>
       </c>
@@ -10013,7 +10015,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -10021,7 +10023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -10029,7 +10031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -10037,7 +10039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -10045,7 +10047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -10053,7 +10055,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -10065,7 +10067,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -10107,7 +10109,7 @@
       </c>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -10150,7 +10152,7 @@
         <v>9046.8000000000011</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -10193,7 +10195,7 @@
         <v>2460.15</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>42</v>
       </c>
@@ -10236,7 +10238,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>43</v>
       </c>
@@ -10279,7 +10281,7 @@
         <v>399.3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>48</v>
       </c>
@@ -10322,7 +10324,7 @@
         <v>549.15</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>39</v>
       </c>
@@ -10365,7 +10367,7 @@
         <v>270.60000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>44</v>
       </c>
@@ -10408,7 +10410,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>49</v>
       </c>
@@ -10451,7 +10453,7 @@
         <v>2221.8000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>50</v>
       </c>
@@ -10494,7 +10496,7 @@
         <v>728.2</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>25</v>
       </c>
@@ -10531,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>38</v>
       </c>
@@ -10568,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>68</v>
       </c>
@@ -10605,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>35</v>
       </c>
@@ -10648,7 +10650,7 @@
         <v>-270.60000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>69</v>
       </c>
@@ -10691,7 +10693,7 @@
         <v>-8.8000000000000007</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>51</v>
       </c>
@@ -10734,7 +10736,7 @@
         <v>-549.15</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>2</v>
       </c>
@@ -10742,7 +10744,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -10750,7 +10752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -10758,7 +10760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -10766,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -10774,7 +10776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -10785,7 +10787,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -10797,7 +10799,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
@@ -10832,7 +10834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>52</v>
       </c>
@@ -10852,7 +10854,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>53</v>
       </c>
@@ -10872,7 +10874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>55</v>
       </c>
@@ -10893,7 +10895,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>2</v>
       </c>
@@ -10901,7 +10903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>3</v>
       </c>
@@ -10909,7 +10911,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -10917,7 +10919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -10925,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -10933,7 +10935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -10941,7 +10943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
@@ -10953,7 +10955,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>12</v>
       </c>
@@ -10995,7 +10997,7 @@
       </c>
       <c r="O174" s="12"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -11037,7 +11039,7 @@
         <v>18.900000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>42</v>
       </c>
@@ -11079,7 +11081,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>31</v>
       </c>
@@ -11121,7 +11123,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -11163,7 +11165,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>36</v>
       </c>
@@ -11205,7 +11207,7 @@
         <v>15330</v>
       </c>
     </row>
-    <row r="180" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>38</v>
       </c>
@@ -11236,7 +11238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>25</v>
       </c>
@@ -11267,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>34</v>
       </c>
@@ -11309,7 +11311,7 @@
         <v>-45360</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
@@ -11317,7 +11319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>3</v>
       </c>
@@ -11325,12 +11327,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -11338,7 +11340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -11346,7 +11348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -11354,7 +11356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -11362,7 +11364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>11</v>
       </c>
@@ -11374,7 +11376,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>12</v>
       </c>
@@ -11414,7 +11416,7 @@
       <c r="N192" s="12"/>
       <c r="O192" s="12"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>76</v>
       </c>
@@ -11434,7 +11436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>77</v>
       </c>
@@ -11454,7 +11456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>78</v>
       </c>
@@ -11474,7 +11476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>26</v>
       </c>
@@ -11494,7 +11496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>2</v>
       </c>
@@ -11502,7 +11504,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>3</v>
       </c>
@@ -11510,7 +11512,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -11518,7 +11520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -11526,7 +11528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -11534,7 +11536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -11542,7 +11544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>11</v>
       </c>
@@ -11554,7 +11556,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>12</v>
       </c>
@@ -11592,7 +11594,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>75</v>
       </c>
@@ -11615,7 +11617,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>92</v>
       </c>
@@ -11639,7 +11641,7 @@
         <v>66571486847.999992</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>36</v>
       </c>
@@ -11659,7 +11661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>90</v>
       </c>
@@ -11682,7 +11684,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>77</v>
       </c>
@@ -11702,7 +11704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>79</v>
       </c>
@@ -11722,7 +11724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>100</v>
       </c>
@@ -11742,7 +11744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>93</v>
       </c>
@@ -11762,7 +11764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>54</v>
       </c>
@@ -11782,7 +11784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>56</v>
       </c>
@@ -11802,7 +11804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>87</v>
       </c>
@@ -11822,7 +11824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>2</v>
       </c>
@@ -11830,7 +11832,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>3</v>
       </c>
@@ -11838,7 +11840,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -11854,7 +11856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -11862,7 +11864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -11870,7 +11872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>11</v>
       </c>
@@ -11882,7 +11884,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>12</v>
       </c>
@@ -11917,7 +11919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>75</v>
       </c>
@@ -11937,7 +11939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>102</v>
       </c>
@@ -11957,7 +11959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>36</v>
       </c>
@@ -11977,7 +11979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>90</v>
       </c>
@@ -11997,7 +11999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>77</v>
       </c>
@@ -12017,7 +12019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>79</v>
       </c>
@@ -12037,7 +12039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>100</v>
       </c>
@@ -12057,7 +12059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>93</v>
       </c>
@@ -12077,7 +12079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>54</v>
       </c>
@@ -12097,7 +12099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>107</v>
       </c>
@@ -12117,7 +12119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>103</v>
       </c>
@@ -12137,7 +12139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>115</v>
       </c>
@@ -12157,7 +12159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>116</v>
       </c>
@@ -12195,24 +12197,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -12220,7 +12222,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12228,12 +12230,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12241,7 +12243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12249,7 +12251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12257,7 +12259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -12265,7 +12267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -12276,7 +12278,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -12311,7 +12313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -12331,7 +12333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -12351,7 +12353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -12371,7 +12373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -12392,7 +12394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -12409,7 +12411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -12433,34 +12435,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S129"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B49" sqref="B49:O51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
-    <col min="9" max="10" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="4.81640625" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12469,7 +12471,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12478,7 +12480,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -12486,7 +12488,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -12494,7 +12496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -12502,7 +12504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -12510,7 +12512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -12518,7 +12520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -12526,7 +12528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -12538,7 +12540,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -12582,7 +12584,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -12624,7 +12626,7 @@
         <v>634392</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -12669,7 +12671,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -12717,7 +12719,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -12765,7 +12767,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -12813,7 +12815,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -12855,7 +12857,7 @@
         <v>50625</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -12897,7 +12899,7 @@
         <v>176418</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -12939,7 +12941,7 @@
         <v>147622.5</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -12981,7 +12983,7 @@
         <v>98415</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -13032,7 +13034,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -13075,7 +13077,7 @@
         <v>-64864800.000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
@@ -13117,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
@@ -13159,7 +13161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>68</v>
       </c>
@@ -13201,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -13243,7 +13245,7 @@
         <v>-176418</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -13285,7 +13287,7 @@
         <v>-147622.5</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -13327,7 +13329,7 @@
         <v>-98415</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -13369,7 +13371,7 @@
         <v>-4289630.4000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -13377,7 +13379,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -13385,7 +13387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -13393,7 +13395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -13401,7 +13403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -13409,7 +13411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -13417,7 +13419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -13429,7 +13431,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -13473,7 +13475,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -13515,7 +13517,7 @@
         <v>2870961.9750000001</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -13557,7 +13559,7 @@
         <v>673235.01000000013</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -13599,7 +13601,7 @@
         <v>96676.875</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -13641,7 +13643,7 @@
         <v>125778.51000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -13683,7 +13685,7 @@
         <v>148086.22500000001</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>39</v>
       </c>
@@ -13725,7 +13727,7 @@
         <v>88078.32</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -13767,7 +13769,7 @@
         <v>3002.6700000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -13809,7 +13811,7 @@
         <v>682152.03</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -13851,7 +13853,7 @@
         <v>227869.29</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>25</v>
       </c>
@@ -13893,7 +13895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>38</v>
       </c>
@@ -13935,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>68</v>
       </c>
@@ -13977,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -14019,7 +14021,7 @@
         <v>-88078.32</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -14061,7 +14063,7 @@
         <v>-3002.67</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -14103,7 +14105,7 @@
         <v>-148086.22500000001</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
@@ -14111,7 +14113,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -14119,7 +14121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -14127,7 +14129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -14135,7 +14137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -14143,7 +14145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -14151,7 +14153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -14163,7 +14165,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
@@ -14189,7 +14191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -14209,7 +14211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -14229,7 +14231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -14249,7 +14251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -14257,7 +14259,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -14265,7 +14267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -14273,7 +14275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -14281,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -14289,7 +14291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -14297,7 +14299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -14309,7 +14311,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
@@ -14353,7 +14355,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -14395,7 +14397,7 @@
         <v>643005</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -14437,7 +14439,7 @@
         <v>25542.000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -14479,7 +14481,7 @@
         <v>3547071.0000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -14521,7 +14523,7 @@
         <v>153549</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -14563,7 +14565,7 @@
         <v>171666</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -14605,7 +14607,7 @@
         <v>51300</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>39</v>
       </c>
@@ -14647,7 +14649,7 @@
         <v>168399</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -14689,7 +14691,7 @@
         <v>142155</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -14731,7 +14733,7 @@
         <v>94770</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -14773,7 +14775,7 @@
         <v>3756931.2</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -14825,7 +14827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>25</v>
       </c>
@@ -14867,7 +14869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>38</v>
       </c>
@@ -14909,7 +14911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>68</v>
       </c>
@@ -14951,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>35</v>
       </c>
@@ -14994,7 +14996,7 @@
         <v>-168399</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -15037,7 +15039,7 @@
         <v>-142155</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>70</v>
       </c>
@@ -15080,7 +15082,7 @@
         <v>-94770</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>46</v>
       </c>
@@ -15123,7 +15125,7 @@
         <v>-3756931.2</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
@@ -15131,7 +15133,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -15139,7 +15141,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -15147,7 +15149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -15155,7 +15157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -15163,7 +15165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -15171,7 +15173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -15183,7 +15185,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
@@ -15227,7 +15229,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -15269,7 +15271,7 @@
         <v>2442636</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -15311,7 +15313,7 @@
         <v>664240.5</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>42</v>
       </c>
@@ -15353,7 +15355,7 @@
         <v>81675</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>43</v>
       </c>
@@ -15395,7 +15397,7 @@
         <v>107811.00000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>48</v>
       </c>
@@ -15437,7 +15439,7 @@
         <v>148270.5</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>39</v>
       </c>
@@ -15479,7 +15481,7 @@
         <v>73062</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -15521,7 +15523,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>49</v>
       </c>
@@ -15563,7 +15565,7 @@
         <v>599886</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>50</v>
       </c>
@@ -15605,7 +15607,7 @@
         <v>196614.00000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>25</v>
       </c>
@@ -15648,7 +15650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>38</v>
       </c>
@@ -15691,7 +15693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>68</v>
       </c>
@@ -15734,7 +15736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -15777,7 +15779,7 @@
         <v>-73062</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>69</v>
       </c>
@@ -15820,7 +15822,7 @@
         <v>-2376</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>51</v>
       </c>
@@ -15863,7 +15865,7 @@
         <v>-148270.5</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -15871,7 +15873,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -15879,7 +15881,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -15887,7 +15889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -15895,7 +15897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -15903,7 +15905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -15911,7 +15913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
@@ -15923,7 +15925,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -15949,7 +15951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>52</v>
       </c>
@@ -15969,7 +15971,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>53</v>
       </c>
@@ -15989,7 +15991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>55</v>
       </c>

--- a/data_and_models/Geothermal power processes_brightway.xlsx
+++ b/data_and_models/Geothermal power processes_brightway.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\data_and_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_321CEF00633E16F1A890F12E059DFE2E2631BA6A" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BC7D71C4-3422-4BC9-B265-4E49BCD6CEAF}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_279B6F4364C6842E296C8111B953500E0F413BCC" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DD54BDF3-03F8-496C-B242-EE66B2763BBC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="125">
   <si>
     <t>Database</t>
   </si>
@@ -589,6 +589,24 @@
   </si>
   <si>
     <t>ecoinvent 3.6 cutoff</t>
+  </si>
+  <si>
+    <t>Heating station 133MW, facilities</t>
+  </si>
+  <si>
+    <t>Heating station 133 MW, machineries</t>
+  </si>
+  <si>
+    <t>Heating station 133 MW</t>
+  </si>
+  <si>
+    <t>Heating station, machineries</t>
+  </si>
+  <si>
+    <t>Heating station</t>
+  </si>
+  <si>
+    <t>Heating station, facilities</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U237"/>
+  <dimension ref="A1:U291"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" zoomScale="53" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="53" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1040,7 +1058,8 @@
     <col min="3" max="3" width="12.7265625" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" customWidth="1"/>
     <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="7" width="19" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="18.1796875" customWidth="1"/>
     <col min="9" max="10" width="16.1796875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
@@ -4110,7 +4129,7 @@
       </c>
       <c r="B121">
         <f>Plants_skip!B86/270</f>
-        <v>-218400</v>
+        <v>-206400</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -4129,22 +4148,22 @@
       </c>
       <c r="J121">
         <f t="array" ref="J121">MIN(ABS(N121:O121))</f>
-        <v>196560</v>
+        <v>185760</v>
       </c>
       <c r="K121">
         <f t="array" ref="K121">MAX(ABS(N121:O121))</f>
-        <v>240240.00000000003</v>
+        <v>227040.00000000003</v>
       </c>
       <c r="M121" t="s">
         <v>64</v>
       </c>
       <c r="N121">
         <f t="shared" si="8"/>
-        <v>-196560</v>
+        <v>-185760</v>
       </c>
       <c r="O121">
         <f t="shared" si="9"/>
-        <v>-240240.00000000003</v>
+        <v>-227040.00000000003</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
@@ -5445,11 +5464,11 @@
         <v>65</v>
       </c>
       <c r="N174">
-        <f t="shared" si="6"/>
+        <f>IF($M174=$S$30,$B174*(1-$T$30),IF($M174=$S$31,$B174*(1-$T$31),IF($M174=$S$32,$B174*(1-$T$32),"ERROR")))</f>
         <v>17.099999999999998</v>
       </c>
       <c r="O174">
-        <f t="shared" si="7"/>
+        <f>IF($M174=$S$30,$B174*(1+$T$30),IF($M174=$S$31,$B174*(1+$T$31),IF($M174=$S$32,$B174*(1+$T$32),"ERROR")))</f>
         <v>18.900000000000002</v>
       </c>
     </row>
@@ -6591,6 +6610,1398 @@
       </c>
       <c r="F237" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>3</v>
+      </c>
+      <c r="B240" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>30</v>
+      </c>
+      <c r="B247">
+        <f>Plants_skip!B138/133</f>
+        <v>767</v>
+      </c>
+      <c r="C247" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247" t="s">
+        <v>18</v>
+      </c>
+      <c r="E247" t="s">
+        <v>15</v>
+      </c>
+      <c r="F247" t="s">
+        <v>118</v>
+      </c>
+      <c r="I247">
+        <v>4</v>
+      </c>
+      <c r="J247">
+        <f>N247</f>
+        <v>728.65</v>
+      </c>
+      <c r="K247">
+        <f>O247</f>
+        <v>805.35</v>
+      </c>
+      <c r="M247" t="s">
+        <v>65</v>
+      </c>
+      <c r="N247">
+        <f>IF($M247=$S$30,$B247*(1-$T$30),IF($M247=$S$31,$B247*(1-$T$31),IF($M247=$S$32,$B247*(1-$T$32),"ERROR")))</f>
+        <v>728.65</v>
+      </c>
+      <c r="O247">
+        <f>IF($M247=$S$30,$B247*(1+$T$30),IF($M247=$S$31,$B247*(1+$T$31),IF($M247=$S$32,$B247*(1+$T$32),"ERROR")))</f>
+        <v>805.35</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>31</v>
+      </c>
+      <c r="B248">
+        <f>Plants_skip!B139/133</f>
+        <v>30</v>
+      </c>
+      <c r="C248" t="s">
+        <v>27</v>
+      </c>
+      <c r="D248" t="s">
+        <v>32</v>
+      </c>
+      <c r="E248" t="s">
+        <v>15</v>
+      </c>
+      <c r="F248" t="s">
+        <v>118</v>
+      </c>
+      <c r="I248">
+        <v>4</v>
+      </c>
+      <c r="J248">
+        <f>N248</f>
+        <v>28.5</v>
+      </c>
+      <c r="K248">
+        <f>O248</f>
+        <v>31.5</v>
+      </c>
+      <c r="M248" t="s">
+        <v>65</v>
+      </c>
+      <c r="N248">
+        <f>IF($M248=$S$30,$B248*(1-$T$30),IF($M248=$S$31,$B248*(1-$T$31),IF($M248=$S$32,$B248*(1-$T$32),"ERROR")))</f>
+        <v>28.5</v>
+      </c>
+      <c r="O248">
+        <f>IF($M248=$S$30,$B248*(1+$T$30),IF($M248=$S$31,$B248*(1+$T$31),IF($M248=$S$32,$B248*(1+$T$32),"ERROR")))</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>40</v>
+      </c>
+      <c r="B249">
+        <f>Plants_skip!B140/133</f>
+        <v>22058</v>
+      </c>
+      <c r="C249" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" t="s">
+        <v>18</v>
+      </c>
+      <c r="E249" t="s">
+        <v>15</v>
+      </c>
+      <c r="F249" t="s">
+        <v>118</v>
+      </c>
+      <c r="I249">
+        <v>4</v>
+      </c>
+      <c r="J249">
+        <f t="shared" ref="J249:K260" si="10">N249</f>
+        <v>20955.099999999999</v>
+      </c>
+      <c r="K249">
+        <f t="shared" si="10"/>
+        <v>23160.9</v>
+      </c>
+      <c r="M249" t="s">
+        <v>65</v>
+      </c>
+      <c r="N249">
+        <f t="shared" ref="N249:N259" si="11">IF($M249=$S$30,$B249*(1-$T$30),IF($M249=$S$31,$B249*(1-$T$31),IF($M249=$S$32,$B249*(1-$T$32),"ERROR")))</f>
+        <v>20955.099999999999</v>
+      </c>
+      <c r="O249">
+        <f t="shared" ref="O249:O259" si="12">IF($M249=$S$30,$B249*(1+$T$30),IF($M249=$S$31,$B249*(1+$T$31),IF($M249=$S$32,$B249*(1+$T$32),"ERROR")))</f>
+        <v>23160.9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250">
+        <f>Plants_skip!B141/133</f>
+        <v>252</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" t="s">
+        <v>18</v>
+      </c>
+      <c r="E250" t="s">
+        <v>15</v>
+      </c>
+      <c r="F250" t="s">
+        <v>118</v>
+      </c>
+      <c r="I250">
+        <v>4</v>
+      </c>
+      <c r="J250">
+        <f t="shared" si="10"/>
+        <v>189</v>
+      </c>
+      <c r="K250">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="M250" t="s">
+        <v>63</v>
+      </c>
+      <c r="N250">
+        <f t="shared" si="11"/>
+        <v>189</v>
+      </c>
+      <c r="O250">
+        <f t="shared" si="12"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>41</v>
+      </c>
+      <c r="B251">
+        <f>Plants_skip!B142/133</f>
+        <v>294</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" t="s">
+        <v>18</v>
+      </c>
+      <c r="E251" t="s">
+        <v>15</v>
+      </c>
+      <c r="F251" t="s">
+        <v>118</v>
+      </c>
+      <c r="I251">
+        <v>4</v>
+      </c>
+      <c r="J251">
+        <f t="shared" si="10"/>
+        <v>220.5</v>
+      </c>
+      <c r="K251">
+        <f t="shared" si="10"/>
+        <v>367.5</v>
+      </c>
+      <c r="M251" t="s">
+        <v>63</v>
+      </c>
+      <c r="N251">
+        <f t="shared" si="11"/>
+        <v>220.5</v>
+      </c>
+      <c r="O251">
+        <f t="shared" si="12"/>
+        <v>367.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>42</v>
+      </c>
+      <c r="B252">
+        <f>Plants_skip!B143/133</f>
+        <v>66</v>
+      </c>
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" t="s">
+        <v>18</v>
+      </c>
+      <c r="E252" t="s">
+        <v>15</v>
+      </c>
+      <c r="F252" t="s">
+        <v>118</v>
+      </c>
+      <c r="I252">
+        <v>4</v>
+      </c>
+      <c r="J252">
+        <f t="shared" si="10"/>
+        <v>49.5</v>
+      </c>
+      <c r="K252">
+        <f t="shared" si="10"/>
+        <v>82.5</v>
+      </c>
+      <c r="M252" t="s">
+        <v>63</v>
+      </c>
+      <c r="N252">
+        <f t="shared" si="11"/>
+        <v>49.5</v>
+      </c>
+      <c r="O252">
+        <f t="shared" si="12"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A253" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B253">
+        <f>Plants_skip!B144/133</f>
+        <v>249</v>
+      </c>
+      <c r="C253" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" t="s">
+        <v>18</v>
+      </c>
+      <c r="E253" t="s">
+        <v>15</v>
+      </c>
+      <c r="F253" t="s">
+        <v>118</v>
+      </c>
+      <c r="I253">
+        <v>4</v>
+      </c>
+      <c r="J253">
+        <f t="shared" si="10"/>
+        <v>186.75</v>
+      </c>
+      <c r="K253">
+        <f t="shared" si="10"/>
+        <v>311.25</v>
+      </c>
+      <c r="M253" t="s">
+        <v>63</v>
+      </c>
+      <c r="N253">
+        <f t="shared" si="11"/>
+        <v>186.75</v>
+      </c>
+      <c r="O253">
+        <f t="shared" si="12"/>
+        <v>311.25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>44</v>
+      </c>
+      <c r="B254">
+        <f>Plants_skip!B145/133</f>
+        <v>1770</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" t="s">
+        <v>18</v>
+      </c>
+      <c r="E254" t="s">
+        <v>15</v>
+      </c>
+      <c r="F254" t="s">
+        <v>118</v>
+      </c>
+      <c r="I254">
+        <v>4</v>
+      </c>
+      <c r="J254">
+        <f t="shared" si="10"/>
+        <v>1327.5</v>
+      </c>
+      <c r="K254">
+        <f t="shared" si="10"/>
+        <v>2212.5</v>
+      </c>
+      <c r="M254" t="s">
+        <v>63</v>
+      </c>
+      <c r="N254">
+        <f t="shared" si="11"/>
+        <v>1327.5</v>
+      </c>
+      <c r="O254">
+        <f t="shared" si="12"/>
+        <v>2212.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>33</v>
+      </c>
+      <c r="B255">
+        <f>Plants_skip!B146/133</f>
+        <v>-72000</v>
+      </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" t="s">
+        <v>15</v>
+      </c>
+      <c r="F255" t="s">
+        <v>118</v>
+      </c>
+      <c r="I255">
+        <v>4</v>
+      </c>
+      <c r="J255">
+        <f t="shared" si="10"/>
+        <v>-68400</v>
+      </c>
+      <c r="K255">
+        <f t="shared" si="10"/>
+        <v>-75600</v>
+      </c>
+      <c r="M255" t="s">
+        <v>65</v>
+      </c>
+      <c r="N255">
+        <f t="shared" si="11"/>
+        <v>-68400</v>
+      </c>
+      <c r="O255">
+        <f t="shared" si="12"/>
+        <v>-75600</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A256" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B256">
+        <f>Plants_skip!B147/133</f>
+        <v>0</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I256">
+        <v>4</v>
+      </c>
+      <c r="J256">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M256" t="s">
+        <v>65</v>
+      </c>
+      <c r="N256">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A257" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B257">
+        <f>Plants_skip!B148/133</f>
+        <v>0</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I257">
+        <v>4</v>
+      </c>
+      <c r="J257">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M257" t="s">
+        <v>63</v>
+      </c>
+      <c r="N257">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A258" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B258">
+        <f>Plants_skip!B149/133</f>
+        <v>0</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F258" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I258">
+        <v>4</v>
+      </c>
+      <c r="J258">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M258" t="s">
+        <v>63</v>
+      </c>
+      <c r="N258">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O258">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>34</v>
+      </c>
+      <c r="B259">
+        <f>Plants_skip!B150/133</f>
+        <v>-249</v>
+      </c>
+      <c r="C259" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" t="s">
+        <v>15</v>
+      </c>
+      <c r="F259" t="s">
+        <v>118</v>
+      </c>
+      <c r="I259">
+        <v>4</v>
+      </c>
+      <c r="J259">
+        <f t="shared" si="10"/>
+        <v>-186.75</v>
+      </c>
+      <c r="K259">
+        <f t="shared" si="10"/>
+        <v>-311.25</v>
+      </c>
+      <c r="M259" t="s">
+        <v>63</v>
+      </c>
+      <c r="N259">
+        <f t="shared" si="11"/>
+        <v>-186.75</v>
+      </c>
+      <c r="O259">
+        <f t="shared" si="12"/>
+        <v>-311.25</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>45</v>
+      </c>
+      <c r="B260">
+        <f>Plants_skip!B151/133</f>
+        <v>-1770</v>
+      </c>
+      <c r="C260" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>32</v>
+      </c>
+      <c r="E260" t="s">
+        <v>15</v>
+      </c>
+      <c r="F260" t="s">
+        <v>118</v>
+      </c>
+      <c r="I260">
+        <v>4</v>
+      </c>
+      <c r="J260">
+        <f t="shared" si="10"/>
+        <v>-1327.5</v>
+      </c>
+      <c r="K260">
+        <f t="shared" si="10"/>
+        <v>-2212.5</v>
+      </c>
+      <c r="M260" t="s">
+        <v>63</v>
+      </c>
+      <c r="N260">
+        <f>IF($M260=$S$30,$B260*(1-$T$30),IF($M260=$S$31,$B260*(1-$T$31),IF($M260=$S$32,$B260*(1-$T$32),"ERROR")))</f>
+        <v>-1327.5</v>
+      </c>
+      <c r="O260">
+        <f>IF($M260=$S$30,$B260*(1+$T$30),IF($M260=$S$31,$B260*(1+$T$31),IF($M260=$S$32,$B260*(1+$T$32),"ERROR")))</f>
+        <v>-2212.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>3</v>
+      </c>
+      <c r="B263" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>7</v>
+      </c>
+      <c r="B266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>9</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O269" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>35</v>
+      </c>
+      <c r="B270">
+        <f>Plants_skip!B160/133</f>
+        <v>192</v>
+      </c>
+      <c r="C270" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" t="s">
+        <v>18</v>
+      </c>
+      <c r="E270" t="s">
+        <v>15</v>
+      </c>
+      <c r="F270" t="s">
+        <v>118</v>
+      </c>
+      <c r="I270">
+        <v>4</v>
+      </c>
+      <c r="J270">
+        <f>N270</f>
+        <v>144</v>
+      </c>
+      <c r="K270">
+        <f>O270</f>
+        <v>240</v>
+      </c>
+      <c r="M270" t="s">
+        <v>63</v>
+      </c>
+      <c r="N270">
+        <f>IF($M270=$S$30,$B270*(1-$T$30),IF($M270=$S$31,$B270*(1-$T$31),IF($M270=$S$32,$B270*(1-$T$32),"ERROR")))</f>
+        <v>144</v>
+      </c>
+      <c r="O270">
+        <f>IF($M270=$S$30,$B270*(1+$T$30),IF($M270=$S$31,$B270*(1+$T$31),IF($M270=$S$32,$B270*(1+$T$32),"ERROR")))</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>19</v>
+      </c>
+      <c r="B271">
+        <f>Plants_skip!B161/133</f>
+        <v>835</v>
+      </c>
+      <c r="C271" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" t="s">
+        <v>18</v>
+      </c>
+      <c r="E271" t="s">
+        <v>15</v>
+      </c>
+      <c r="F271" t="s">
+        <v>118</v>
+      </c>
+      <c r="I271">
+        <v>4</v>
+      </c>
+      <c r="J271">
+        <f t="shared" ref="J271:K280" si="13">N271</f>
+        <v>793.25</v>
+      </c>
+      <c r="K271">
+        <f t="shared" si="13"/>
+        <v>876.75</v>
+      </c>
+      <c r="M271" t="s">
+        <v>65</v>
+      </c>
+      <c r="N271">
+        <f>IF($M271=$S$30,$B271*(1-$T$30),IF($M271=$S$31,$B271*(1-$T$31),IF($M271=$S$32,$B271*(1-$T$32),"ERROR")))</f>
+        <v>793.25</v>
+      </c>
+      <c r="O271">
+        <f>IF($M271=$S$30,$B271*(1+$T$30),IF($M271=$S$31,$B271*(1+$T$31),IF($M271=$S$32,$B271*(1+$T$32),"ERROR")))</f>
+        <v>876.75</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>41</v>
+      </c>
+      <c r="B272">
+        <f>Plants_skip!B162/133</f>
+        <v>7</v>
+      </c>
+      <c r="C272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" t="s">
+        <v>18</v>
+      </c>
+      <c r="E272" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" t="s">
+        <v>118</v>
+      </c>
+      <c r="I272">
+        <v>4</v>
+      </c>
+      <c r="J272">
+        <f t="shared" si="13"/>
+        <v>6.3</v>
+      </c>
+      <c r="K272">
+        <f t="shared" si="13"/>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="M272" t="s">
+        <v>64</v>
+      </c>
+      <c r="N272">
+        <f t="shared" ref="N272:N280" si="14">IF($M272=$S$30,$B272*(1-$T$30),IF($M272=$S$31,$B272*(1-$T$31),IF($M272=$S$32,$B272*(1-$T$32),"ERROR")))</f>
+        <v>6.3</v>
+      </c>
+      <c r="O272">
+        <f t="shared" ref="O272:O280" si="15">IF($M272=$S$30,$B272*(1+$T$30),IF($M272=$S$31,$B272*(1+$T$31),IF($M272=$S$32,$B272*(1+$T$32),"ERROR")))</f>
+        <v>7.7000000000000011</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>42</v>
+      </c>
+      <c r="B273">
+        <f>Plants_skip!B163/133</f>
+        <v>6</v>
+      </c>
+      <c r="C273" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" t="s">
+        <v>18</v>
+      </c>
+      <c r="E273" t="s">
+        <v>15</v>
+      </c>
+      <c r="F273" t="s">
+        <v>118</v>
+      </c>
+      <c r="I273">
+        <v>4</v>
+      </c>
+      <c r="J273">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="K273">
+        <f t="shared" si="13"/>
+        <v>7.5</v>
+      </c>
+      <c r="M273" t="s">
+        <v>63</v>
+      </c>
+      <c r="N273">
+        <f t="shared" si="14"/>
+        <v>4.5</v>
+      </c>
+      <c r="O273">
+        <f t="shared" si="15"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A274" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B274">
+        <f>Plants_skip!B164/133</f>
+        <v>35</v>
+      </c>
+      <c r="C274" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" t="s">
+        <v>18</v>
+      </c>
+      <c r="E274" t="s">
+        <v>15</v>
+      </c>
+      <c r="F274" t="s">
+        <v>118</v>
+      </c>
+      <c r="I274">
+        <v>4</v>
+      </c>
+      <c r="J274">
+        <f t="shared" si="13"/>
+        <v>31.5</v>
+      </c>
+      <c r="K274">
+        <f t="shared" si="13"/>
+        <v>38.5</v>
+      </c>
+      <c r="M274" t="s">
+        <v>64</v>
+      </c>
+      <c r="N274">
+        <f t="shared" si="14"/>
+        <v>31.5</v>
+      </c>
+      <c r="O274">
+        <f t="shared" si="15"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>43</v>
+      </c>
+      <c r="B275">
+        <f>Plants_skip!B165/133</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C275" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" t="s">
+        <v>18</v>
+      </c>
+      <c r="E275" t="s">
+        <v>15</v>
+      </c>
+      <c r="F275" t="s">
+        <v>118</v>
+      </c>
+      <c r="I275">
+        <v>4</v>
+      </c>
+      <c r="J275">
+        <f t="shared" si="13"/>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="K275">
+        <f t="shared" si="13"/>
+        <v>1.375</v>
+      </c>
+      <c r="M275" t="s">
+        <v>63</v>
+      </c>
+      <c r="N275">
+        <f t="shared" si="14"/>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="O275">
+        <f t="shared" si="15"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A276" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" s="8">
+        <v>0</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D276" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F276" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I276">
+        <v>4</v>
+      </c>
+      <c r="J276">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M276" t="s">
+        <v>64</v>
+      </c>
+      <c r="N276">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O276">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A277" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B277" s="8">
+        <v>0</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F277" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I277">
+        <v>4</v>
+      </c>
+      <c r="J277">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M277" t="s">
+        <v>64</v>
+      </c>
+      <c r="N277">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O277">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A278" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B278" s="8">
+        <v>0</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F278" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I278">
+        <v>4</v>
+      </c>
+      <c r="J278">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M278" t="s">
+        <v>63</v>
+      </c>
+      <c r="N278">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O278">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>34</v>
+      </c>
+      <c r="B279">
+        <f>-B274</f>
+        <v>-35</v>
+      </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" t="s">
+        <v>15</v>
+      </c>
+      <c r="F279" t="s">
+        <v>118</v>
+      </c>
+      <c r="I279">
+        <v>4</v>
+      </c>
+      <c r="J279">
+        <f t="shared" si="13"/>
+        <v>-31.5</v>
+      </c>
+      <c r="K279">
+        <f t="shared" si="13"/>
+        <v>-38.5</v>
+      </c>
+      <c r="M279" t="s">
+        <v>64</v>
+      </c>
+      <c r="N279">
+        <f t="shared" si="14"/>
+        <v>-31.5</v>
+      </c>
+      <c r="O279">
+        <f t="shared" si="15"/>
+        <v>-38.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>68</v>
+      </c>
+      <c r="B280">
+        <f>-B275</f>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C280" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" t="s">
+        <v>15</v>
+      </c>
+      <c r="F280" t="s">
+        <v>118</v>
+      </c>
+      <c r="I280">
+        <v>4</v>
+      </c>
+      <c r="J280">
+        <f t="shared" si="13"/>
+        <v>-0.82500000000000007</v>
+      </c>
+      <c r="K280">
+        <f t="shared" si="13"/>
+        <v>-1.375</v>
+      </c>
+      <c r="M280" t="s">
+        <v>63</v>
+      </c>
+      <c r="N280">
+        <f t="shared" si="14"/>
+        <v>-0.82500000000000007</v>
+      </c>
+      <c r="O280">
+        <f t="shared" si="15"/>
+        <v>-1.375</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A282" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>9</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A288" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+    </row>
+    <row r="289" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A289" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>124</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290" t="s">
+        <v>81</v>
+      </c>
+      <c r="D290" t="s">
+        <v>18</v>
+      </c>
+      <c r="E290" t="s">
+        <v>15</v>
+      </c>
+      <c r="F290" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>122</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
+        <v>81</v>
+      </c>
+      <c r="D291" t="s">
+        <v>18</v>
+      </c>
+      <c r="E291" t="s">
+        <v>15</v>
+      </c>
+      <c r="F291" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -9700,7 +11111,7 @@
       </c>
       <c r="B122">
         <f>Plants_skip!B86/270</f>
-        <v>-218400</v>
+        <v>-206400</v>
       </c>
       <c r="C122" t="s">
         <v>10</v>
@@ -9719,22 +11130,22 @@
       </c>
       <c r="J122">
         <f t="array" ref="J122">MIN(ABS(N122:O122))</f>
-        <v>196560</v>
+        <v>185760</v>
       </c>
       <c r="K122">
         <f t="array" ref="K122">MAX(ABS(N122:O122))</f>
-        <v>240240.00000000003</v>
+        <v>227040.00000000003</v>
       </c>
       <c r="M122" t="s">
         <v>64</v>
       </c>
       <c r="N122">
         <f t="shared" si="9"/>
-        <v>-196560</v>
+        <v>-185760</v>
       </c>
       <c r="O122">
         <f t="shared" si="10"/>
-        <v>-240240.00000000003</v>
+        <v>-227040.00000000003</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
@@ -12440,10 +13851,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S129"/>
+  <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A147" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13043,7 +14454,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="6">
-        <f>-24570*R22</f>
+        <f>-B14*R22</f>
         <v>-58968000</v>
       </c>
       <c r="C23" t="s">
@@ -14393,11 +15804,11 @@
         <v>64</v>
       </c>
       <c r="N76">
-        <f t="shared" ref="N76:N86" si="12">IF($M76=$R$15,$B76*(1-$S$15),IF($M76=$R$16,$B76*(1-$S$16),IF($M76=$R$17,$B76*(1-$S$17),"ERROR")))</f>
+        <f>IF($M76=$R$15,$B76*(1-$S$15),IF($M76=$R$16,$B76*(1-$S$16),IF($M76=$R$17,$B76*(1-$S$17),"ERROR")))</f>
         <v>526095</v>
       </c>
       <c r="O76">
-        <f t="shared" ref="O76:O89" si="13">IF($M76=$R$15,$B76*(1+$S$15),IF($M76=$R$16,$B76*(1+$S$16),IF($M76=$R$17,$B76*(1+$S$17),"ERROR")))</f>
+        <f t="shared" ref="O76:O89" si="12">IF($M76=$R$15,$B76*(1+$S$15),IF($M76=$R$16,$B76*(1+$S$16),IF($M76=$R$17,$B76*(1+$S$17),"ERROR")))</f>
         <v>643005</v>
       </c>
     </row>
@@ -14424,22 +15835,22 @@
         <v>4</v>
       </c>
       <c r="J77">
-        <f t="shared" ref="J77:J84" si="14">N77</f>
+        <f t="shared" ref="J77:J84" si="13">N77</f>
         <v>20898</v>
       </c>
       <c r="K77">
-        <f t="shared" ref="K77:K84" si="15">O77</f>
+        <f t="shared" ref="K77:K84" si="14">O77</f>
         <v>25542.000000000004</v>
       </c>
       <c r="M77" t="s">
         <v>64</v>
       </c>
       <c r="N77">
+        <f t="shared" ref="N77:N86" si="15">IF($M77=$R$15,$B77*(1-$S$15),IF($M77=$R$16,$B77*(1-$S$16),IF($M77=$R$17,$B77*(1-$S$17),"ERROR")))</f>
+        <v>20898</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="12"/>
-        <v>20898</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="13"/>
         <v>25542.000000000004</v>
       </c>
     </row>
@@ -14466,22 +15877,22 @@
         <v>4</v>
       </c>
       <c r="J78">
+        <f t="shared" si="13"/>
+        <v>2902149</v>
+      </c>
+      <c r="K78">
         <f t="shared" si="14"/>
-        <v>2902149</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="15"/>
         <v>3547071.0000000005</v>
       </c>
       <c r="M78" t="s">
         <v>64</v>
       </c>
       <c r="N78">
+        <f t="shared" si="15"/>
+        <v>2902149</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="12"/>
-        <v>2902149</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="13"/>
         <v>3547071.0000000005</v>
       </c>
     </row>
@@ -14508,22 +15919,22 @@
         <v>4</v>
       </c>
       <c r="J79">
+        <f t="shared" si="13"/>
+        <v>125631</v>
+      </c>
+      <c r="K79">
         <f t="shared" si="14"/>
-        <v>125631</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="15"/>
         <v>153549</v>
       </c>
       <c r="M79" t="s">
         <v>64</v>
       </c>
       <c r="N79">
+        <f t="shared" si="15"/>
+        <v>125631</v>
+      </c>
+      <c r="O79">
         <f t="shared" si="12"/>
-        <v>125631</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="13"/>
         <v>153549</v>
       </c>
     </row>
@@ -14550,22 +15961,22 @@
         <v>4</v>
       </c>
       <c r="J80">
+        <f t="shared" si="13"/>
+        <v>140454</v>
+      </c>
+      <c r="K80">
         <f t="shared" si="14"/>
-        <v>140454</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="15"/>
         <v>171666</v>
       </c>
       <c r="M80" t="s">
         <v>64</v>
       </c>
       <c r="N80">
+        <f t="shared" si="15"/>
+        <v>140454</v>
+      </c>
+      <c r="O80">
         <f t="shared" si="12"/>
-        <v>140454</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="13"/>
         <v>171666</v>
       </c>
     </row>
@@ -14592,22 +16003,22 @@
         <v>4</v>
       </c>
       <c r="J81">
+        <f t="shared" si="13"/>
+        <v>30780</v>
+      </c>
+      <c r="K81">
         <f t="shared" si="14"/>
-        <v>30780</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="15"/>
         <v>51300</v>
       </c>
       <c r="M81" t="s">
         <v>63</v>
       </c>
       <c r="N81">
+        <f t="shared" si="15"/>
+        <v>30780</v>
+      </c>
+      <c r="O81">
         <f t="shared" si="12"/>
-        <v>30780</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="13"/>
         <v>51300</v>
       </c>
     </row>
@@ -14634,22 +16045,22 @@
         <v>4</v>
       </c>
       <c r="J82">
+        <f t="shared" si="13"/>
+        <v>137781</v>
+      </c>
+      <c r="K82">
         <f t="shared" si="14"/>
-        <v>137781</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="15"/>
         <v>168399</v>
       </c>
       <c r="M82" t="s">
         <v>64</v>
       </c>
       <c r="N82">
+        <f t="shared" si="15"/>
+        <v>137781</v>
+      </c>
+      <c r="O82">
         <f t="shared" si="12"/>
-        <v>137781</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="13"/>
         <v>168399</v>
       </c>
     </row>
@@ -14676,22 +16087,22 @@
         <v>4</v>
       </c>
       <c r="J83">
+        <f t="shared" si="13"/>
+        <v>85293</v>
+      </c>
+      <c r="K83">
         <f t="shared" si="14"/>
-        <v>85293</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="15"/>
         <v>142155</v>
       </c>
       <c r="M83" t="s">
         <v>63</v>
       </c>
       <c r="N83">
+        <f t="shared" si="15"/>
+        <v>85293</v>
+      </c>
+      <c r="O83">
         <f t="shared" si="12"/>
-        <v>85293</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="13"/>
         <v>142155</v>
       </c>
     </row>
@@ -14718,22 +16129,22 @@
         <v>4</v>
       </c>
       <c r="J84">
+        <f t="shared" si="13"/>
+        <v>56862</v>
+      </c>
+      <c r="K84">
         <f t="shared" si="14"/>
-        <v>56862</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="15"/>
         <v>94770</v>
       </c>
       <c r="M84" t="s">
         <v>63</v>
       </c>
       <c r="N84">
+        <f t="shared" si="15"/>
+        <v>56862</v>
+      </c>
+      <c r="O84">
         <f t="shared" si="12"/>
-        <v>56862</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="13"/>
         <v>94770</v>
       </c>
     </row>
@@ -14771,11 +16182,11 @@
         <v>64</v>
       </c>
       <c r="N85">
+        <f t="shared" si="15"/>
+        <v>3073852.8000000003</v>
+      </c>
+      <c r="O85">
         <f t="shared" si="12"/>
-        <v>3073852.8000000003</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="13"/>
         <v>3756931.2</v>
       </c>
     </row>
@@ -14784,8 +16195,8 @@
         <v>33</v>
       </c>
       <c r="B86">
-        <f>-24570*R86</f>
-        <v>-58968000</v>
+        <f>-B77*R86</f>
+        <v>-55728000</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -14804,22 +16215,22 @@
       </c>
       <c r="J86">
         <f t="shared" ref="J86" si="16">N86</f>
-        <v>-53071200</v>
+        <v>-50155200</v>
       </c>
       <c r="K86">
         <f t="shared" ref="K86" si="17">O86</f>
-        <v>-64864800.000000007</v>
+        <v>-61300800.000000007</v>
       </c>
       <c r="M86" t="s">
         <v>64</v>
       </c>
       <c r="N86">
+        <f t="shared" si="15"/>
+        <v>-50155200</v>
+      </c>
+      <c r="O86">
         <f t="shared" si="12"/>
-        <v>-53071200</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="13"/>
-        <v>-64864800.000000007</v>
+        <v>-61300800.000000007</v>
       </c>
       <c r="Q86" t="s">
         <v>71</v>
@@ -14869,7 +16280,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14911,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14953,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -15995,7 +17406,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>54</v>
       </c>
@@ -16012,6 +17423,1371 @@
         <v>15</v>
       </c>
       <c r="F129" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138">
+        <v>102011</v>
+      </c>
+      <c r="C138" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" t="s">
+        <v>118</v>
+      </c>
+      <c r="I138">
+        <v>4</v>
+      </c>
+      <c r="J138">
+        <f>N138</f>
+        <v>96910.45</v>
+      </c>
+      <c r="K138">
+        <f>O138</f>
+        <v>107111.55</v>
+      </c>
+      <c r="M138" t="s">
+        <v>65</v>
+      </c>
+      <c r="N138">
+        <f>IF($M138=$R$15,$B138*(1-$S$15),IF($M138=$R$16,$B138*(1-$S$16),IF($M138=$R$17,$B138*(1-$S$17),"ERROR")))</f>
+        <v>96910.45</v>
+      </c>
+      <c r="O138">
+        <f t="shared" ref="O138:O151" si="28">IF($M138=$R$15,$B138*(1+$S$15),IF($M138=$R$16,$B138*(1+$S$16),IF($M138=$R$17,$B138*(1+$S$17),"ERROR")))</f>
+        <v>107111.55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139">
+        <v>3990</v>
+      </c>
+      <c r="C139" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" t="s">
+        <v>118</v>
+      </c>
+      <c r="I139">
+        <v>4</v>
+      </c>
+      <c r="J139">
+        <f t="shared" ref="J139:J151" si="29">N139</f>
+        <v>3790.5</v>
+      </c>
+      <c r="K139">
+        <f t="shared" ref="K139:K151" si="30">O139</f>
+        <v>4189.5</v>
+      </c>
+      <c r="M139" t="s">
+        <v>65</v>
+      </c>
+      <c r="N139">
+        <f t="shared" ref="N139:N149" si="31">IF($M139=$R$15,$B139*(1-$S$15),IF($M139=$R$16,$B139*(1-$S$16),IF($M139=$R$17,$B139*(1-$S$17),"ERROR")))</f>
+        <v>3790.5</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="28"/>
+        <v>4189.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>40</v>
+      </c>
+      <c r="B140">
+        <v>2933714</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
+        <v>118</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="29"/>
+        <v>2787028.3</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="30"/>
+        <v>3080399.7</v>
+      </c>
+      <c r="M140" t="s">
+        <v>65</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="31"/>
+        <v>2787028.3</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="28"/>
+        <v>3080399.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141">
+        <v>33516</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" t="s">
+        <v>118</v>
+      </c>
+      <c r="I141">
+        <v>4</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="29"/>
+        <v>25137</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="30"/>
+        <v>41895</v>
+      </c>
+      <c r="M141" t="s">
+        <v>63</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="31"/>
+        <v>25137</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="28"/>
+        <v>41895</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>41</v>
+      </c>
+      <c r="B142">
+        <v>39102</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" t="s">
+        <v>118</v>
+      </c>
+      <c r="I142">
+        <v>4</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="29"/>
+        <v>29326.5</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="30"/>
+        <v>48877.5</v>
+      </c>
+      <c r="M142" t="s">
+        <v>63</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="31"/>
+        <v>29326.5</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="28"/>
+        <v>48877.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>42</v>
+      </c>
+      <c r="B143">
+        <v>8778</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>118</v>
+      </c>
+      <c r="I143">
+        <v>4</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="29"/>
+        <v>6583.5</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="30"/>
+        <v>10972.5</v>
+      </c>
+      <c r="M143" t="s">
+        <v>63</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="31"/>
+        <v>6583.5</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="28"/>
+        <v>10972.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B144">
+        <v>33117</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" t="s">
+        <v>118</v>
+      </c>
+      <c r="I144">
+        <v>4</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="29"/>
+        <v>24837.75</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="30"/>
+        <v>41396.25</v>
+      </c>
+      <c r="M144" t="s">
+        <v>63</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="31"/>
+        <v>24837.75</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="28"/>
+        <v>41396.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145">
+        <v>235410</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" t="s">
+        <v>118</v>
+      </c>
+      <c r="I145">
+        <v>4</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="29"/>
+        <v>176557.5</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="30"/>
+        <v>294262.5</v>
+      </c>
+      <c r="M145" t="s">
+        <v>63</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="31"/>
+        <v>176557.5</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="28"/>
+        <v>294262.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>33</v>
+      </c>
+      <c r="B146">
+        <f>-B139*R86</f>
+        <v>-9576000</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" t="s">
+        <v>118</v>
+      </c>
+      <c r="I146">
+        <v>4</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="29"/>
+        <v>-9097200</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="30"/>
+        <v>-10054800</v>
+      </c>
+      <c r="M146" t="s">
+        <v>65</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="31"/>
+        <v>-9097200</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="28"/>
+        <v>-10054800</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A147" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I147">
+        <v>4</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M147" t="s">
+        <v>65</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A148" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I148">
+        <v>4</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M148" t="s">
+        <v>63</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A149" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I149">
+        <v>4</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M149" t="s">
+        <v>63</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>34</v>
+      </c>
+      <c r="B150">
+        <f>-B144</f>
+        <v>-33117</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" t="s">
+        <v>118</v>
+      </c>
+      <c r="I150">
+        <v>4</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="29"/>
+        <v>-24837.75</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="30"/>
+        <v>-41396.25</v>
+      </c>
+      <c r="M150" t="s">
+        <v>63</v>
+      </c>
+      <c r="N150">
+        <f>IF($M150=$R$15,$B150*(1-$S$15),IF($M150=$R$16,$B150*(1-$S$16),IF($M150=$R$17,$B150*(1-$S$17),"ERROR")))</f>
+        <v>-24837.75</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="28"/>
+        <v>-41396.25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>45</v>
+      </c>
+      <c r="B151">
+        <f>-B145</f>
+        <v>-235410</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>32</v>
+      </c>
+      <c r="E151" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" t="s">
+        <v>118</v>
+      </c>
+      <c r="I151">
+        <v>4</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="29"/>
+        <v>-176557.5</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="30"/>
+        <v>-294262.5</v>
+      </c>
+      <c r="M151" t="s">
+        <v>63</v>
+      </c>
+      <c r="N151">
+        <f>IF($M151=$R$15,$B151*(1-$S$15),IF($M151=$R$16,$B151*(1-$S$16),IF($M151=$R$17,$B151*(1-$S$17),"ERROR")))</f>
+        <v>-176557.5</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="28"/>
+        <v>-294262.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160">
+        <v>25536</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="s">
+        <v>118</v>
+      </c>
+      <c r="I160">
+        <v>4</v>
+      </c>
+      <c r="J160">
+        <f>N160</f>
+        <v>19152</v>
+      </c>
+      <c r="K160">
+        <f>O160</f>
+        <v>31920</v>
+      </c>
+      <c r="M160" t="s">
+        <v>63</v>
+      </c>
+      <c r="N160">
+        <f>IF($M160=$R$15,$B160*(1-$S$15),IF($M160=$R$16,$B160*(1-$S$16),IF($M160=$R$17,$B160*(1-$S$17),"ERROR")))</f>
+        <v>19152</v>
+      </c>
+      <c r="O160">
+        <f t="shared" ref="O160:O170" si="32">IF($M160=$R$15,$B160*(1+$S$15),IF($M160=$R$16,$B160*(1+$S$16),IF($M160=$R$17,$B160*(1+$S$17),"ERROR")))</f>
+        <v>31920</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161">
+        <v>111055</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" t="s">
+        <v>118</v>
+      </c>
+      <c r="I161">
+        <v>4</v>
+      </c>
+      <c r="J161">
+        <f t="shared" ref="J161:J170" si="33">N161</f>
+        <v>105502.25</v>
+      </c>
+      <c r="K161">
+        <f t="shared" ref="K161:K170" si="34">O161</f>
+        <v>116607.75</v>
+      </c>
+      <c r="M161" t="s">
+        <v>65</v>
+      </c>
+      <c r="N161">
+        <f t="shared" ref="N161:N170" si="35">IF($M161=$R$15,$B161*(1-$S$15),IF($M161=$R$16,$B161*(1-$S$16),IF($M161=$R$17,$B161*(1-$S$17),"ERROR")))</f>
+        <v>105502.25</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="32"/>
+        <v>116607.75</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>41</v>
+      </c>
+      <c r="B162">
+        <v>931</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" t="s">
+        <v>18</v>
+      </c>
+      <c r="E162" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" t="s">
+        <v>118</v>
+      </c>
+      <c r="I162">
+        <v>4</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="33"/>
+        <v>837.9</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="34"/>
+        <v>1024.1000000000001</v>
+      </c>
+      <c r="M162" t="s">
+        <v>64</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="35"/>
+        <v>837.9</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="32"/>
+        <v>1024.1000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>42</v>
+      </c>
+      <c r="B163">
+        <v>798</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" t="s">
+        <v>118</v>
+      </c>
+      <c r="I163">
+        <v>4</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="33"/>
+        <v>598.5</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="34"/>
+        <v>997.5</v>
+      </c>
+      <c r="M163" t="s">
+        <v>63</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="35"/>
+        <v>598.5</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="32"/>
+        <v>997.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B164">
+        <v>4655</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" t="s">
+        <v>118</v>
+      </c>
+      <c r="I164">
+        <v>4</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="33"/>
+        <v>4189.5</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="34"/>
+        <v>5120.5</v>
+      </c>
+      <c r="M164" t="s">
+        <v>64</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="35"/>
+        <v>4189.5</v>
+      </c>
+      <c r="O164">
+        <f t="shared" si="32"/>
+        <v>5120.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>43</v>
+      </c>
+      <c r="B165">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" t="s">
+        <v>118</v>
+      </c>
+      <c r="I165">
+        <v>4</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="33"/>
+        <v>109.72500000000001</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="34"/>
+        <v>182.875</v>
+      </c>
+      <c r="M165" t="s">
+        <v>63</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="35"/>
+        <v>109.72500000000001</v>
+      </c>
+      <c r="O165">
+        <f t="shared" si="32"/>
+        <v>182.875</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A166" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" s="8">
+        <v>0</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I166">
+        <v>4</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M166" t="s">
+        <v>64</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A167" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B167" s="8">
+        <v>0</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M167" t="s">
+        <v>64</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A168" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B168" s="8">
+        <v>0</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M168" t="s">
+        <v>63</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169">
+        <f>-B164</f>
+        <v>-4655</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" t="s">
+        <v>118</v>
+      </c>
+      <c r="I169">
+        <v>4</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="33"/>
+        <v>-4189.5</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="34"/>
+        <v>-5120.5</v>
+      </c>
+      <c r="M169" t="s">
+        <v>64</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="35"/>
+        <v>-4189.5</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="32"/>
+        <v>-5120.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>68</v>
+      </c>
+      <c r="B170">
+        <f>-B165</f>
+        <v>-146.30000000000001</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" t="s">
+        <v>118</v>
+      </c>
+      <c r="I170">
+        <v>4</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="33"/>
+        <v>-109.72500000000001</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="34"/>
+        <v>-182.875</v>
+      </c>
+      <c r="M170" t="s">
+        <v>63</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="35"/>
+        <v>-109.72500000000001</v>
+      </c>
+      <c r="O170">
+        <f t="shared" si="32"/>
+        <v>-182.875</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>119</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>120</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" t="s">
         <v>56</v>
       </c>
     </row>

--- a/data_and_models/Geothermal power processes_brightway.xlsx
+++ b/data_and_models/Geothermal power processes_brightway.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="11_279B6F4364C6842E296C8111B953500E0F413BCC" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DD54BDF3-03F8-496C-B242-EE66B2763BBC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="53" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView topLeftCell="A231" zoomScale="53" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13853,8 +13853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
